--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artyom\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12223BB2-0ABE-4F0E-A47E-1995AEB29843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D2D9AA-6A54-4C93-80CE-FEE015D62D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Слово</t>
   </si>
@@ -39,25 +39,113 @@
     <t>Переклад</t>
   </si>
   <si>
-    <t>hhfhf</t>
-  </si>
-  <si>
-    <t>geeyy</t>
-  </si>
-  <si>
-    <t>hff</t>
+    <t>Англійська</t>
+  </si>
+  <si>
+    <t>Прикметник</t>
+  </si>
+  <si>
+    <t>unreachable</t>
+  </si>
+  <si>
+    <t>недосяжний</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>Іменник</t>
+  </si>
+  <si>
+    <t>запис</t>
+  </si>
+  <si>
+    <t>№2.</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>applicable</t>
+  </si>
+  <si>
+    <t>допустимий</t>
+  </si>
+  <si>
+    <t>короткий</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consecterur adipiscing elit.</t>
+  </si>
+  <si>
+    <t>Файл із задовгим полем у записі (&gt;50 символів)</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Фраза</t>
+  </si>
+  <si>
+    <t>Латинська</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -81,8 +169,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -363,40 +471,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="71.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="60.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
